--- a/StrengthEstimation/LOL_MSI_2025.xlsx
+++ b/StrengthEstimation/LOL_MSI_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Desktop\Toolbox\StrengthEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29ACBF9-55A6-4BEE-97BD-4E200FC7934B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20639B-B271-4E15-BC0F-CA087BCAA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOL_MSI_2025" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>team1</t>
   </si>
@@ -45,13 +45,7 @@
     <t>bo</t>
   </si>
   <si>
-    <t>score1</t>
-  </si>
-  <si>
     <t>score2</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>G2</t>
@@ -139,6 +133,22 @@
   </si>
   <si>
     <t>KOI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>score1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(inverse exposure weighting)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bo7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1091,13 +1101,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1113,33 +1127,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1152,25 +1166,25 @@
         <v>0.31622776601683794</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <f>COUNTIF($A$2:$B$18, I2)</f>
+        <f>COUNTIF($A$2:$B$19, I2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1183,25 +1197,25 @@
         <v>0.23570226039551587</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="0">COUNTIF($A$2:$B$18, I3)</f>
+        <f t="shared" ref="J3:J11" si="0">COUNTIF($A$2:$B$19, I3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1214,7 +1228,7 @@
         <v>0.40824829046386307</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -1223,16 +1237,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1245,7 +1259,7 @@
         <v>0.18257418583505536</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -1254,16 +1268,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1276,7 +1290,7 @@
         <v>0.2581988897471611</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -1285,16 +1299,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1307,25 +1321,25 @@
         <v>0.2581988897471611</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1335,10 +1349,10 @@
       </c>
       <c r="G8">
         <f>1/SQRT(VLOOKUP(A8, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B8, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.28867513459481292</v>
+        <v>0.2581988897471611</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -1347,16 +1361,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1366,28 +1380,28 @@
       </c>
       <c r="G9">
         <f>1/SQRT(VLOOKUP(A9, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B9, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.33333333333333331</v>
+        <v>0.28867513459481292</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9">
-        <f>COUNTIF($A$2:$B$18, I9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1400,25 +1414,25 @@
         <v>0.28867513459481292</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1431,7 +1445,7 @@
         <v>0.2581988897471611</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -1440,16 +1454,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1464,16 +1478,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1483,21 +1497,21 @@
       </c>
       <c r="G13">
         <f>1/SQRT(VLOOKUP(A13, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B13, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.28867513459481292</v>
+        <v>0.2581988897471611</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1507,21 +1521,21 @@
       </c>
       <c r="G14">
         <f>1/SQRT(VLOOKUP(A14, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B14, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.23570226039551587</v>
+        <v>0.20412414523193154</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1536,16 +1550,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1555,21 +1569,21 @@
       </c>
       <c r="G16">
         <f>1/SQRT(VLOOKUP(A16, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B16, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.28867513459481292</v>
+        <v>0.2581988897471611</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1579,21 +1593,21 @@
       </c>
       <c r="G17">
         <f>1/SQRT(VLOOKUP(A17, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B17, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.33333333333333331</v>
+        <v>0.28867513459481292</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1603,7 +1617,36 @@
       </c>
       <c r="G18">
         <f>1/SQRT(VLOOKUP(A18, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B18, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
-        <v>0.20412414523193154</v>
+        <v>0.18257418583505536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>1/SQRT(VLOOKUP(A19, $I$2:$I$11:$J$2:$J$11, 2, FALSE)*VLOOKUP(B19, $I$2:$I$11:$J$2:$J$11, 2, FALSE))</f>
+        <v>0.22360679774997896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
